--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,16 +893,17 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,11 +1003,11 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -996,25 +1015,28 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,25 +1097,26 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1099,25 +1125,28 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>-300</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,17 +1154,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1143,25 +1172,28 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>300</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,11 +1220,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1205,11 +1238,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,17 +1267,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
@@ -1249,25 +1285,28 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,26 +1349,29 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
@@ -1337,25 +1379,28 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,26 +1490,29 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
@@ -1469,43 +1520,46 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
@@ -1513,25 +1567,28 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,11 +1784,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1733,11 +1802,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1750,26 +1819,29 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
@@ -1777,25 +1849,28 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,26 +1913,29 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
@@ -1865,74 +1943,80 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,63 +2052,67 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>300</v>
-      </c>
       <c r="I41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2037,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,13 +2238,16 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2179,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2187,25 +2285,28 @@
       <c r="P45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
@@ -2214,25 +2315,28 @@
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,19 +2379,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2469,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2481,11 +2600,11 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -2493,10 +2612,13 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>900</v>
       </c>
       <c r="M54" s="3">
+        <v>900</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2748,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -2663,31 +2793,34 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,28 +2840,31 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>700</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>700</v>
       </c>
       <c r="F59" s="3">
+        <v>700</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
       <c r="I59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -2740,7 +2876,7 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2751,28 +2887,31 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>700</v>
+      </c>
+      <c r="G60" s="3">
         <v>600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>500</v>
       </c>
       <c r="H60" s="3">
         <v>500</v>
       </c>
       <c r="I60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
@@ -2784,7 +2923,7 @@
         <v>600</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -2795,13 +2934,16 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2839,19 +2981,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3169,31 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>700</v>
+      </c>
+      <c r="G66" s="3">
         <v>600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>500</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
       </c>
       <c r="I66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
@@ -3048,7 +3205,7 @@
         <v>600</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-42100</v>
       </c>
-      <c r="E72" s="3">
-        <v>-42000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-41900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-41700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-41200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-40600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-40900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-42200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-42100</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
       </c>
       <c r="F76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>100</v>
       </c>
       <c r="I76" s="3">
         <v>100</v>
       </c>
       <c r="J76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K76" s="3">
         <v>200</v>
       </c>
       <c r="L76" s="3">
+        <v>200</v>
+      </c>
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,75 +3705,81 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="E80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
@@ -3593,25 +3787,28 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4105,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3913,22 +4129,22 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,14 +4191,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,20 +4312,23 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4566,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,22 +4660,25 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4436,24 +4687,27 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,13 +920,15 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -908,8 +936,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,37 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>-300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,14 +1291,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1241,14 +1309,14 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,69 +1341,75 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,14 +1927,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1805,14 +1945,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,72 +2225,80 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1100</v>
+        <v>3300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
       <c r="F42" s="3">
+        <v>300</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2129,11 +2309,11 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,20 +2433,26 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2280,27 +2478,33 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -2309,34 +2513,40 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,25 +2592,31 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,10 +2819,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2591,34 +2831,40 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2100</v>
+        <v>12000</v>
       </c>
       <c r="E54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
+        <v>800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
+        <v>900</v>
+      </c>
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,20 +3009,22 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2796,20 +3058,26 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2822,11 +3090,11 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2843,34 +3111,40 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -2879,10 +3153,10 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -2890,34 +3164,40 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>800</v>
+      </c>
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
-        <v>700</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>600</v>
@@ -2926,10 +3206,10 @@
         <v>600</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -2937,19 +3217,25 @@
       <c r="Q60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2995,14 +3287,14 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -3013,11 +3305,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,34 +3482,40 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>4400</v>
       </c>
       <c r="E66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>800</v>
+      </c>
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
-        <v>700</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>600</v>
@@ -3208,10 +3524,10 @@
         <v>600</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41100</v>
+        <v>-43000</v>
       </c>
       <c r="E72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-40600</v>
       </c>
-      <c r="F72" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-40500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-40300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-39900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-41200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-40600</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-40900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-42200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-42100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4194,17 +4636,17 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,26 +4769,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,37 +5055,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,14 +947,14 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,13 +1045,16 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1052,11 +1072,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1064,25 +1084,28 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,34 +1178,35 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1188,25 +1215,28 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>-300</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,25 +1244,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1241,25 +1271,28 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>300</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,17 +1325,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1315,11 +1349,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,63 +1378,66 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1411,8 +1451,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,17 +1997,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1951,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
       </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,16 +2382,16 @@
         <v>100</v>
       </c>
       <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
         <v>300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="I42" s="3">
+        <v>100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2484,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2492,34 +2591,37 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
@@ -2528,25 +2630,28 @@
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,28 +2703,31 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8400</v>
+        <v>9700</v>
       </c>
       <c r="E48" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="F48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2825,7 +2945,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2837,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -2849,11 +2969,11 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -2861,10 +2981,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="E54" s="3">
-        <v>10300</v>
+        <v>12100</v>
       </c>
       <c r="F54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>900</v>
       </c>
       <c r="O54" s="3">
         <v>900</v>
       </c>
       <c r="P54" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,22 +3141,23 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3064,23 +3195,26 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,37 +3251,40 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
-        <v>700</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3159,7 +3296,7 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -3170,37 +3307,40 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4400</v>
+        <v>2200</v>
       </c>
       <c r="E60" s="3">
         <v>4500</v>
       </c>
       <c r="F60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
       </c>
       <c r="L60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>600</v>
@@ -3212,7 +3352,7 @@
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3223,23 +3363,26 @@
       <c r="S60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3276,13 +3419,16 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3293,11 +3439,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,37 +3643,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4400</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
         <v>4500</v>
       </c>
       <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>500</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>600</v>
@@ -3530,7 +3688,7 @@
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-43000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-43300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-43100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-42400</v>
-      </c>
       <c r="I72" s="3">
-        <v>-42400</v>
+        <v>-42900</v>
       </c>
       <c r="J72" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-42200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7500</v>
+        <v>10300</v>
       </c>
       <c r="E76" s="3">
-        <v>5700</v>
+        <v>7600</v>
       </c>
       <c r="F76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
       </c>
       <c r="I76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>100</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
       </c>
       <c r="M76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
       </c>
       <c r="O76" s="3">
+        <v>200</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4569,25 +4786,25 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4642,14 +4863,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,29 +5002,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -5093,8 +5339,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,32 +5416,35 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1600</v>
+        <v>-600</v>
       </c>
       <c r="E102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5200,24 +5452,27 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -1188,7 +1188,7 @@
         <v>1600</v>
       </c>
       <c r="E17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>-800</v>
@@ -1490,7 +1490,7 @@
         <v>-2000</v>
       </c>
       <c r="E23" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F23" s="3">
         <v>-900</v>
@@ -1658,7 +1658,7 @@
         <v>-2000</v>
       </c>
       <c r="E26" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F26" s="3">
         <v>-900</v>
@@ -1714,7 +1714,7 @@
         <v>-2000</v>
       </c>
       <c r="E27" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>-2000</v>
       </c>
       <c r="E33" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
@@ -2162,7 +2162,7 @@
         <v>-2000</v>
       </c>
       <c r="E35" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
@@ -2320,16 +2320,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E41" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F41" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E46" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F46" s="3">
         <v>1800</v>
       </c>
       <c r="G46" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2712,13 +2712,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="F48" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3048,22 +3048,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="E54" s="3">
-        <v>12100</v>
+        <v>12500</v>
       </c>
       <c r="F54" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="G54" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -3151,10 +3151,10 @@
         <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
@@ -3213,7 +3213,7 @@
         <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -3275,10 +3275,10 @@
         <v>800</v>
       </c>
       <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
@@ -3316,13 +3316,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E60" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F60" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
@@ -3331,10 +3331,10 @@
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>600</v>
       </c>
       <c r="K60" s="3">
         <v>500</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3655,22 +3655,22 @@
         <v>2500</v>
       </c>
       <c r="E66" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F66" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G66" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44100</v>
+        <v>-45400</v>
       </c>
       <c r="E72" s="3">
-        <v>-43500</v>
+        <v>-44800</v>
       </c>
       <c r="F72" s="3">
-        <v>-43800</v>
+        <v>-45200</v>
       </c>
       <c r="G72" s="3">
-        <v>-43600</v>
+        <v>-44900</v>
       </c>
       <c r="H72" s="3">
-        <v>-43000</v>
+        <v>-44300</v>
       </c>
       <c r="I72" s="3">
-        <v>-42900</v>
+        <v>-44200</v>
       </c>
       <c r="J72" s="3">
-        <v>-42900</v>
+        <v>-44200</v>
       </c>
       <c r="K72" s="3">
         <v>-42200</v>
@@ -4178,13 +4178,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="E76" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="F76" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -4354,7 +4354,7 @@
         <v>-2000</v>
       </c>
       <c r="E81" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
@@ -5011,7 +5011,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5316,13 +5316,13 @@
         <v>1000</v>
       </c>
       <c r="E100" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
         <v>700</v>
       </c>
       <c r="G100" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +809,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +961,15 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -950,8 +977,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -959,8 +986,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1081,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1075,37 +1114,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1230,72 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,26 +1389,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1352,14 +1419,14 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,72 +1451,78 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1454,11 +1533,11 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,26 +2133,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2024,14 +2163,14 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,69 +2485,77 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="E41" s="3">
-        <v>3400</v>
+        <v>6700</v>
       </c>
       <c r="F41" s="3">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="G41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -2385,19 +2564,19 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
         <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>100</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
@@ -2408,11 +2587,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2426,22 +2605,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2729,19 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2559,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2586,72 +2783,84 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3100</v>
+        <v>5000</v>
       </c>
       <c r="E46" s="3">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,35 +2915,41 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E48" s="3">
-        <v>8800</v>
+        <v>13600</v>
       </c>
       <c r="F48" s="3">
-        <v>8800</v>
+        <v>10500</v>
       </c>
       <c r="G48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2948,10 +3187,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2960,34 +3199,40 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13200</v>
+        <v>20800</v>
       </c>
       <c r="E54" s="3">
-        <v>12500</v>
+        <v>20800</v>
       </c>
       <c r="F54" s="3">
-        <v>10700</v>
+        <v>13800</v>
       </c>
       <c r="G54" s="3">
-        <v>2300</v>
+        <v>13000</v>
       </c>
       <c r="H54" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,29 +3401,31 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,20 +3474,20 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3233,11 +3500,11 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,43 +3521,49 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>1300</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -3299,10 +3572,10 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3310,43 +3583,49 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="F60" s="3">
-        <v>4700</v>
+        <v>2400</v>
       </c>
       <c r="G60" s="3">
-        <v>900</v>
+        <v>4800</v>
       </c>
       <c r="H60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
@@ -3355,10 +3634,10 @@
         <v>600</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,20 +3660,20 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3422,34 +3707,40 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,43 +3955,49 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="E66" s="3">
         <v>4600</v>
       </c>
       <c r="F66" s="3">
-        <v>4700</v>
+        <v>2700</v>
       </c>
       <c r="G66" s="3">
-        <v>2600</v>
+        <v>4800</v>
       </c>
       <c r="H66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
@@ -3691,10 +4006,10 @@
         <v>600</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45400</v>
+        <v>-46100</v>
       </c>
       <c r="E72" s="3">
-        <v>-44800</v>
+        <v>-46100</v>
       </c>
       <c r="F72" s="3">
-        <v>-45200</v>
+        <v>-47500</v>
       </c>
       <c r="G72" s="3">
-        <v>-44900</v>
+        <v>-46900</v>
       </c>
       <c r="H72" s="3">
-        <v>-44300</v>
+        <v>-47200</v>
       </c>
       <c r="I72" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-42200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-41200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-40700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-40900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-42200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-42100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10600</v>
+        <v>16800</v>
       </c>
       <c r="E76" s="3">
-        <v>7800</v>
+        <v>16200</v>
       </c>
       <c r="F76" s="3">
-        <v>5900</v>
+        <v>11100</v>
       </c>
       <c r="G76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
       <c r="N76" s="3">
+        <v>100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,28 +5186,34 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4789,34 +5222,40 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4858,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4866,17 +5307,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,34 +5458,40 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>100</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>100</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,46 +5792,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>2400</v>
+        <v>6100</v>
       </c>
       <c r="F100" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,13 +976,14 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -983,14 +997,14 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1200</v>
+        <v>2100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1120,11 +1140,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1132,25 +1152,28 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,44 +1258,45 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="G17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>700</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>900</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1277,25 +1304,28 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>-300</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,34 +1333,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2500</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="G18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1339,25 +1369,28 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>300</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,29 +1423,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1425,11 +1459,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,81 +1488,84 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-1600</v>
+        <v>-1800</v>
       </c>
       <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1539,8 +1579,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,29 +2203,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2169,11 +2239,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,31 +2573,32 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="E41" s="3">
-        <v>6700</v>
+        <v>4100</v>
       </c>
       <c r="F41" s="3">
-        <v>2900</v>
+        <v>6300</v>
       </c>
       <c r="G41" s="3">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="H41" s="3">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="I41" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2520,46 +2607,49 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
       </c>
       <c r="Q41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R41" s="3">
         <v>400</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
-        <v>100</v>
-      </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
@@ -2570,16 +2660,16 @@
         <v>100</v>
       </c>
       <c r="I42" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="L42" s="3">
+        <v>100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2593,8 +2683,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,13 +2716,13 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,19 +2846,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2789,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2797,43 +2896,46 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5000</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
-        <v>7200</v>
+        <v>4700</v>
       </c>
       <c r="F46" s="3">
-        <v>3200</v>
+        <v>6800</v>
       </c>
       <c r="G46" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="H46" s="3">
-        <v>1900</v>
+        <v>3500</v>
       </c>
       <c r="I46" s="3">
         <v>1800</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
@@ -2842,25 +2944,28 @@
         <v>300</v>
       </c>
       <c r="Q46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,37 +3026,40 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="E48" s="3">
-        <v>13600</v>
+        <v>14800</v>
       </c>
       <c r="F48" s="3">
-        <v>10500</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
-        <v>9200</v>
+        <v>9900</v>
       </c>
       <c r="H48" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="I48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3193,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3205,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3217,11 +3337,11 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3229,10 +3349,13 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20800</v>
+        <v>18800</v>
       </c>
       <c r="E54" s="3">
-        <v>20800</v>
+        <v>19600</v>
       </c>
       <c r="F54" s="3">
-        <v>13800</v>
+        <v>19600</v>
       </c>
       <c r="G54" s="3">
         <v>13000</v>
       </c>
       <c r="H54" s="3">
-        <v>11200</v>
+        <v>12300</v>
       </c>
       <c r="I54" s="3">
-        <v>2400</v>
+        <v>10500</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>900</v>
       </c>
       <c r="R54" s="3">
         <v>900</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,32 +3533,33 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3465,13 +3596,16 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3480,17 +3614,17 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>2100</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>2000</v>
       </c>
       <c r="I58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3506,8 +3640,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3527,46 +3661,49 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="E59" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="G59" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
+      <c r="I59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -3578,7 +3715,7 @@
         <v>600</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3589,46 +3726,49 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2400</v>
-      </c>
       <c r="G60" s="3">
-        <v>4800</v>
+        <v>2200</v>
       </c>
       <c r="H60" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>4700</v>
       </c>
       <c r="J60" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
       </c>
       <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>600</v>
@@ -3640,7 +3780,7 @@
         <v>600</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3666,16 +3809,16 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3713,23 +3856,26 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3739,11 +3885,11 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,46 +4116,49 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E66" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="F66" s="3">
-        <v>2700</v>
+        <v>4400</v>
       </c>
       <c r="G66" s="3">
-        <v>4800</v>
+        <v>2500</v>
       </c>
       <c r="H66" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="I66" s="3">
-        <v>2700</v>
+        <v>4700</v>
       </c>
       <c r="J66" s="3">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="K66" s="3">
         <v>800</v>
       </c>
       <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
       </c>
       <c r="O66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P66" s="3">
         <v>600</v>
@@ -4012,7 +4170,7 @@
         <v>600</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-46100</v>
+        <v>-43300</v>
       </c>
       <c r="E72" s="3">
-        <v>-46100</v>
+        <v>-43300</v>
       </c>
       <c r="F72" s="3">
-        <v>-47500</v>
+        <v>-43400</v>
       </c>
       <c r="G72" s="3">
-        <v>-46900</v>
+        <v>-44600</v>
       </c>
       <c r="H72" s="3">
-        <v>-47200</v>
+        <v>-44100</v>
       </c>
       <c r="I72" s="3">
-        <v>-46900</v>
+        <v>-44400</v>
       </c>
       <c r="J72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-44200</v>
       </c>
       <c r="L72" s="3">
         <v>-44200</v>
       </c>
       <c r="M72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="N72" s="3">
         <v>-42200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-40900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-42200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16800</v>
+        <v>15900</v>
       </c>
       <c r="E76" s="3">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="F76" s="3">
-        <v>11100</v>
+        <v>15200</v>
       </c>
       <c r="G76" s="3">
-        <v>8200</v>
+        <v>10500</v>
       </c>
       <c r="H76" s="3">
-        <v>6200</v>
+        <v>7700</v>
       </c>
       <c r="I76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
-        <v>100</v>
-      </c>
       <c r="O76" s="3">
         <v>100</v>
       </c>
       <c r="P76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
       <c r="R76" s="3">
+        <v>200</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="G81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,31 +5406,34 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-700</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5228,25 +5445,25 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5299,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5313,14 +5534,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,37 +5691,40 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2200</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="F94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,31 +6053,31 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>1100</v>
+        <v>5800</v>
       </c>
       <c r="G100" s="3">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="H100" s="3">
-        <v>800</v>
+        <v>2300</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -5839,8 +6085,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5860,13 +6106,16 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5922,40 +6171,43 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="E102" s="3">
-        <v>3800</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
-        <v>1800</v>
-      </c>
       <c r="H102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>1300</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -5964,24 +6216,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1006,8 +1020,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,14 +1139,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1143,11 +1163,11 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1155,48 +1175,51 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,47 +1285,48 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1307,25 +1334,28 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>-300</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,38 +1363,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
@@ -1372,25 +1402,28 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>300</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,32 +1457,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1462,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-800</v>
       </c>
       <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,20 +1595,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1582,8 +1622,8 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-900</v>
       </c>
       <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-900</v>
       </c>
       <c r="I27" s="3">
         <v>-900</v>
       </c>
       <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,32 +2273,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2242,11 +2312,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-900</v>
       </c>
       <c r="I33" s="3">
         <v>-900</v>
       </c>
       <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-900</v>
       </c>
       <c r="I35" s="3">
         <v>-900</v>
       </c>
       <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,35 +2660,36 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
-        <v>3300</v>
-      </c>
       <c r="I41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -2610,49 +2697,52 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>400</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3">
-        <v>100</v>
-      </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
@@ -2663,16 +2753,16 @@
         <v>100</v>
       </c>
       <c r="J42" s="3">
+        <v>100</v>
+      </c>
+      <c r="K42" s="3">
         <v>300</v>
       </c>
-      <c r="K42" s="3">
-        <v>100</v>
-      </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>100</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2686,8 +2776,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,13 +2794,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2719,13 +2812,13 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2858,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2891,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -2899,46 +2998,49 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
@@ -2947,25 +3049,28 @@
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,40 +3134,43 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="E48" s="3">
-        <v>14800</v>
+        <v>16500</v>
       </c>
       <c r="F48" s="3">
-        <v>12800</v>
+        <v>14900</v>
       </c>
       <c r="G48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
-        <v>8600</v>
-      </c>
       <c r="J48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3316,7 +3436,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3328,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
@@ -3340,11 +3460,11 @@
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3352,10 +3472,13 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="E54" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F54" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="G54" s="3">
-        <v>13000</v>
+        <v>19700</v>
       </c>
       <c r="H54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
-        <v>10500</v>
-      </c>
       <c r="J54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>100</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>900</v>
       </c>
       <c r="S54" s="3">
         <v>900</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,35 +3664,36 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3617,17 +3751,17 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3643,8 +3777,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,40 +3810,40 @@
         <v>2500</v>
       </c>
       <c r="E59" s="3">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="F59" s="3">
         <v>1500</v>
       </c>
       <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>800</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -3718,7 +3855,7 @@
         <v>600</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,40 +3878,40 @@
         <v>2800</v>
       </c>
       <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
-        <v>4500</v>
-      </c>
       <c r="I60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
       </c>
       <c r="M60" s="3">
+        <v>800</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>500</v>
       </c>
       <c r="P60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>600</v>
@@ -3783,7 +3923,7 @@
         <v>600</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3812,17 +3955,17 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3859,26 +4002,29 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3888,11 +4034,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,40 +4286,40 @@
         <v>2900</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
-        <v>4500</v>
-      </c>
       <c r="I66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
       </c>
       <c r="M66" s="3">
+        <v>800</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>500</v>
       </c>
       <c r="O66" s="3">
         <v>500</v>
       </c>
       <c r="P66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q66" s="3">
         <v>600</v>
@@ -4173,7 +4331,7 @@
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43300</v>
+        <v>-43700</v>
       </c>
       <c r="E72" s="3">
-        <v>-43300</v>
+        <v>-43600</v>
       </c>
       <c r="F72" s="3">
-        <v>-43400</v>
+        <v>-43600</v>
       </c>
       <c r="G72" s="3">
-        <v>-44600</v>
+        <v>-43700</v>
       </c>
       <c r="H72" s="3">
-        <v>-44100</v>
+        <v>-45000</v>
       </c>
       <c r="I72" s="3">
         <v>-44400</v>
       </c>
       <c r="J72" s="3">
+        <v>-44700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-44200</v>
       </c>
       <c r="M72" s="3">
         <v>-44200</v>
       </c>
       <c r="N72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-42200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-40600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-40900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-42100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>15900</v>
       </c>
       <c r="E76" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="F76" s="3">
-        <v>15200</v>
+        <v>15900</v>
       </c>
       <c r="G76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H76" s="3">
         <v>10500</v>
       </c>
-      <c r="H76" s="3">
-        <v>7700</v>
-      </c>
       <c r="I76" s="3">
-        <v>5800</v>
+        <v>7800</v>
       </c>
       <c r="J76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
         <v>100</v>
       </c>
       <c r="Q76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
       <c r="S76" s="3">
+        <v>200</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-900</v>
       </c>
       <c r="I81" s="3">
         <v>-900</v>
       </c>
       <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,35 +5623,38 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
@@ -5448,25 +5665,25 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5537,14 +5758,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,40 +5921,43 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2000</v>
-      </c>
       <c r="F94" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,31 +6302,31 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>2300</v>
-      </c>
       <c r="I100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -6088,8 +6334,8 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6109,16 +6355,19 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -6174,43 +6423,46 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6219,24 +6471,27 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,13 +1016,15 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1023,11 +1050,11 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,17 +1181,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1166,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1212,8 +1257,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1221,11 +1266,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1337,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,67 +1348,73 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
-      </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>-300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>-300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1422,73 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1000</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2400</v>
+        <v>-900</v>
       </c>
       <c r="H18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,38 +1524,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>600</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1499,14 +1566,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1598,73 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1598,23 +1677,23 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1625,11 +1704,11 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,76 +1731,88 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H26" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,38 +2412,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-600</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2315,14 +2454,14 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,93 +2832,101 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4100</v>
-      </c>
       <c r="G41" s="3">
-        <v>6300</v>
+        <v>1900</v>
       </c>
       <c r="H41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F42" s="3">
         <v>200</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -2756,19 +2935,19 @@
         <v>100</v>
       </c>
       <c r="K42" s="3">
+        <v>100</v>
+      </c>
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
         <v>300</v>
       </c>
-      <c r="L42" s="3">
-        <v>100</v>
-      </c>
-      <c r="M42" s="3">
-        <v>100</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
+        <v>100</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2779,11 +2958,11 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2797,34 +2976,40 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,22 +3148,22 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2993,84 +3190,96 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="3">
-        <v>4700</v>
+        <v>1500</v>
       </c>
       <c r="G46" s="3">
-        <v>6800</v>
+        <v>2300</v>
       </c>
       <c r="H46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,47 +3346,53 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="E48" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="F48" s="3">
-        <v>14900</v>
+        <v>16800</v>
       </c>
       <c r="G48" s="3">
-        <v>12900</v>
+        <v>16100</v>
       </c>
       <c r="H48" s="3">
-        <v>9900</v>
+        <v>14500</v>
       </c>
       <c r="I48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3642,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3439,10 +3678,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3451,34 +3690,40 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>300</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
       </c>
       <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="E54" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="F54" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="G54" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="H54" s="3">
-        <v>13100</v>
+        <v>19200</v>
       </c>
       <c r="I54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
       </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,41 +3924,43 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3733,41 +3994,47 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3780,11 +4047,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,55 +4068,61 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
-        <v>2600</v>
-      </c>
       <c r="F59" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="G59" s="3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="H59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
@@ -3858,10 +4131,10 @@
         <v>600</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -3869,55 +4142,61 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E60" s="3">
         <v>2800</v>
       </c>
       <c r="F60" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="G60" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
@@ -3926,10 +4205,10 @@
         <v>600</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -3937,16 +4216,22 @@
       <c r="X60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3958,20 +4243,20 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4005,46 +4290,52 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4055,11 +4346,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4586,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,46 +4601,46 @@
         <v>2900</v>
       </c>
       <c r="E66" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F66" s="3">
-        <v>3800</v>
+        <v>2900</v>
       </c>
       <c r="G66" s="3">
-        <v>4400</v>
+        <v>2900</v>
       </c>
       <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
@@ -4334,10 +4649,10 @@
         <v>600</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -4345,8 +4660,14 @@
       <c r="X66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43700</v>
+        <v>-42900</v>
       </c>
       <c r="E72" s="3">
-        <v>-43600</v>
+        <v>-42400</v>
       </c>
       <c r="F72" s="3">
-        <v>-43600</v>
+        <v>-42600</v>
       </c>
       <c r="G72" s="3">
-        <v>-43700</v>
+        <v>-42500</v>
       </c>
       <c r="H72" s="3">
-        <v>-45000</v>
+        <v>-42600</v>
       </c>
       <c r="I72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-42200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-39800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-41200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-40700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-40600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-40900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-42200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-42100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="E76" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="F76" s="3">
-        <v>15900</v>
+        <v>15600</v>
       </c>
       <c r="G76" s="3">
-        <v>15300</v>
+        <v>15600</v>
       </c>
       <c r="H76" s="3">
-        <v>10500</v>
+        <v>15600</v>
       </c>
       <c r="I76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,40 +6053,46 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5668,34 +6101,40 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
-      </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,20 +6159,22 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5761,17 +6202,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,46 +6377,52 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>100</v>
+        <v>-900</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5992,8 +6451,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,58 +6775,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6358,23 +6849,29 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6923,84 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
-        <v>3600</v>
-      </c>
       <c r="H102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,16 +1031,17 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1056,8 +1070,8 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,14 +1207,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1211,11 +1231,11 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1223,25 +1243,28 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-800</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1254,14 +1277,14 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1272,8 +1295,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,13 +1365,14 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1354,41 +1381,41 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>2300</v>
-      </c>
       <c r="J17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>100</v>
-      </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
@@ -1396,25 +1423,28 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>-300</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1100</v>
       </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,40 +1458,40 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
@@ -1470,25 +1500,28 @@
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>300</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,41 +1558,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1572,11 +1606,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,73 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-800</v>
       </c>
       <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1683,20 +1723,20 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>100</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1710,8 +1750,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-900</v>
       </c>
       <c r="L23" s="3">
         <v>-900</v>
       </c>
       <c r="M23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-900</v>
       </c>
       <c r="L26" s="3">
         <v>-900</v>
       </c>
       <c r="M26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-900</v>
       </c>
       <c r="L27" s="3">
         <v>-900</v>
       </c>
       <c r="M27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,41 +2482,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2460,11 +2530,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-900</v>
       </c>
       <c r="L33" s="3">
         <v>-900</v>
       </c>
       <c r="M33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-900</v>
       </c>
       <c r="L35" s="3">
         <v>-900</v>
       </c>
       <c r="M35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,44 +2920,45 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>1900</v>
-      </c>
       <c r="H41" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
@@ -2879,58 +2966,61 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
       </c>
       <c r="U41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V41" s="3">
         <v>400</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>200</v>
       </c>
-      <c r="I42" s="3">
-        <v>100</v>
-      </c>
       <c r="J42" s="3">
         <v>100</v>
       </c>
@@ -2941,16 +3031,16 @@
         <v>100</v>
       </c>
       <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
         <v>300</v>
       </c>
-      <c r="N42" s="3">
-        <v>100</v>
-      </c>
       <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="P42" s="3">
+        <v>100</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
@@ -2964,8 +3054,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,22 +3072,25 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
@@ -3006,13 +3099,13 @@
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,13 +3226,16 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -3154,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3163,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3196,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3204,55 +3303,58 @@
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="H46" s="3">
-        <v>4600</v>
-      </c>
       <c r="I46" s="3">
-        <v>6600</v>
+        <v>4700</v>
       </c>
       <c r="J46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
@@ -3261,25 +3363,28 @@
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,49 +3457,52 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="E48" s="3">
-        <v>17100</v>
+        <v>17600</v>
       </c>
       <c r="F48" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="G48" s="3">
-        <v>16100</v>
+        <v>17000</v>
       </c>
       <c r="H48" s="3">
-        <v>14500</v>
+        <v>16300</v>
       </c>
       <c r="I48" s="3">
-        <v>12600</v>
+        <v>14700</v>
       </c>
       <c r="J48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K48" s="3">
         <v>9700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8700</v>
       </c>
       <c r="L48" s="3">
         <v>8700</v>
       </c>
       <c r="M48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3696,10 +3816,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>400</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
@@ -3708,11 +3828,11 @@
         <v>400</v>
       </c>
       <c r="V52" s="3">
+        <v>400</v>
+      </c>
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
@@ -3720,10 +3840,13 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18300</v>
+        <v>21100</v>
       </c>
       <c r="E54" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G54" s="3">
         <v>18600</v>
       </c>
-      <c r="F54" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>18500</v>
-      </c>
       <c r="H54" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="I54" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="J54" s="3">
+        <v>19500</v>
+      </c>
+      <c r="K54" s="3">
         <v>12800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>100</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>900</v>
       </c>
       <c r="V54" s="3">
         <v>900</v>
       </c>
       <c r="W54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,35 +4066,35 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,13 +4146,13 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4027,17 +4161,17 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4053,8 +4187,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4074,16 +4208,19 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2500</v>
       </c>
       <c r="F59" s="3">
         <v>2500</v>
@@ -4092,40 +4229,40 @@
         <v>2500</v>
       </c>
       <c r="H59" s="3">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="I59" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>800</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>800</v>
       </c>
       <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
@@ -4137,7 +4274,7 @@
         <v>600</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4148,58 +4285,61 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
-        <v>3100</v>
-      </c>
       <c r="I60" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>600</v>
@@ -4211,7 +4351,7 @@
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4222,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -4249,17 +4392,17 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4296,35 +4439,38 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4334,11 +4480,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -4352,8 +4498,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,7 +4759,7 @@
         <v>2900</v>
       </c>
       <c r="E66" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="F66" s="3">
         <v>2900</v>
@@ -4610,40 +4768,40 @@
         <v>2900</v>
       </c>
       <c r="H66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>500</v>
       </c>
       <c r="R66" s="3">
         <v>500</v>
       </c>
       <c r="S66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T66" s="3">
         <v>600</v>
@@ -4655,7 +4813,7 @@
         <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-42800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-42900</v>
       </c>
-      <c r="E72" s="3">
-        <v>-42400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-42500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-42600</v>
-      </c>
       <c r="I72" s="3">
-        <v>-42700</v>
+        <v>-43000</v>
       </c>
       <c r="J72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-44200</v>
       </c>
       <c r="P72" s="3">
         <v>-44200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-42200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-40700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-42200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-42100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15400</v>
+        <v>18200</v>
       </c>
       <c r="E76" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G76" s="3">
+        <v>15700</v>
+      </c>
+      <c r="H76" s="3">
         <v>15800</v>
       </c>
-      <c r="F76" s="3">
-        <v>15600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>15600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>15600</v>
-      </c>
       <c r="I76" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="J76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
       <c r="S76" s="3">
         <v>100</v>
       </c>
       <c r="T76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>200</v>
       </c>
       <c r="V76" s="3">
+        <v>200</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
-      </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
       <c r="Y76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-900</v>
       </c>
       <c r="L81" s="3">
         <v>-900</v>
       </c>
       <c r="M81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,43 +6273,46 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6107,25 +6324,25 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6133,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,23 +6381,24 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6208,14 +6429,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,49 +6610,52 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,20 +7024,23 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6802,31 +7048,31 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
@@ -6834,8 +7080,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6867,14 +7116,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -6929,52 +7178,55 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-2100</v>
       </c>
       <c r="H102" s="3">
         <v>-2100</v>
       </c>
       <c r="I102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J102" s="3">
         <v>3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -6983,24 +7235,27 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,19 +1045,20 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -1073,8 +1087,8 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1210,14 +1230,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1234,11 +1254,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1246,25 +1266,28 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1280,14 +1303,14 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,16 +1392,17 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1384,41 +1411,41 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
@@ -1426,25 +1453,28 @@
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>-300</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1100</v>
       </c>
-      <c r="AA17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1461,40 +1491,40 @@
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
@@ -1503,25 +1533,28 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>300</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,44 +1592,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1609,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
       </c>
       <c r="M21" s="3">
         <v>-800</v>
       </c>
       <c r="N21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1726,20 +1766,20 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>100</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1753,8 +1793,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-900</v>
       </c>
       <c r="M23" s="3">
         <v>-900</v>
       </c>
       <c r="N23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-900</v>
       </c>
       <c r="M26" s="3">
         <v>-900</v>
       </c>
       <c r="N26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>300</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-900</v>
       </c>
       <c r="M27" s="3">
         <v>-900</v>
       </c>
       <c r="N27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,44 +2552,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2533,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-900</v>
       </c>
       <c r="M33" s="3">
         <v>-900</v>
       </c>
       <c r="N33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-900</v>
       </c>
       <c r="M35" s="3">
         <v>-900</v>
       </c>
       <c r="N35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,47 +3007,48 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L41" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
@@ -2969,37 +3056,40 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>400</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3007,23 +3097,23 @@
         <v>200</v>
       </c>
       <c r="E42" s="3">
+        <v>200</v>
+      </c>
+      <c r="F42" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>200</v>
       </c>
-      <c r="J42" s="3">
-        <v>100</v>
-      </c>
       <c r="K42" s="3">
         <v>100</v>
       </c>
@@ -3034,16 +3124,16 @@
         <v>100</v>
       </c>
       <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3">
         <v>300</v>
       </c>
-      <c r="O42" s="3">
-        <v>100</v>
-      </c>
       <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
+      <c r="Q42" s="3">
+        <v>100</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
@@ -3057,8 +3147,8 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,16 +3177,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -3102,13 +3195,13 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3256,7 +3355,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3265,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3298,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3306,58 +3405,61 @@
       <c r="AA45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
-        <v>800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
@@ -3366,25 +3468,28 @@
         <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,52 +3565,55 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="E48" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="F48" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="G48" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="H48" s="3">
-        <v>16300</v>
+        <v>16500</v>
       </c>
       <c r="I48" s="3">
-        <v>14700</v>
+        <v>15800</v>
       </c>
       <c r="J48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K48" s="3">
         <v>12700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>8700</v>
       </c>
       <c r="M48" s="3">
         <v>8700</v>
       </c>
       <c r="N48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3807,7 +3927,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3819,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>400</v>
@@ -3831,11 +3951,11 @@
         <v>400</v>
       </c>
       <c r="W52" s="3">
+        <v>400</v>
+      </c>
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
@@ -3843,10 +3963,13 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21100</v>
+        <v>19900</v>
       </c>
       <c r="E54" s="3">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="F54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J54" s="3">
         <v>18800</v>
       </c>
-      <c r="G54" s="3">
-        <v>18600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>900</v>
       </c>
       <c r="W54" s="3">
         <v>900</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,47 +4187,48 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>500</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
       <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -4134,13 +4265,16 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -4149,13 +4283,13 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4164,17 +4298,17 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4190,8 +4324,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,52 +4357,52 @@
         <v>2100</v>
       </c>
       <c r="E59" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="F59" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>2500</v>
       </c>
       <c r="H59" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
-        <v>800</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
+        <v>800</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>500</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
@@ -4277,7 +4414,7 @@
         <v>600</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4288,16 +4425,19 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3000</v>
       </c>
       <c r="F60" s="3">
         <v>2900</v>
@@ -4309,40 +4449,40 @@
         <v>2700</v>
       </c>
       <c r="I60" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="J60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>500</v>
       </c>
       <c r="T60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U60" s="3">
         <v>600</v>
@@ -4354,7 +4494,7 @@
         <v>600</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Y60" s="3">
         <v>100</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4395,17 +4538,17 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4442,38 +4585,41 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4483,11 +4629,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,61 +4905,64 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F66" s="3">
         <v>2900</v>
       </c>
       <c r="G66" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H66" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I66" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="J66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
       <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>500</v>
       </c>
       <c r="S66" s="3">
         <v>500</v>
       </c>
       <c r="T66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U66" s="3">
         <v>600</v>
@@ -4816,7 +4974,7 @@
         <v>600</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Y66" s="3">
         <v>100</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42500</v>
+        <v>-41500</v>
       </c>
       <c r="E72" s="3">
-        <v>-43300</v>
+        <v>-41200</v>
       </c>
       <c r="F72" s="3">
-        <v>-42800</v>
+        <v>-42000</v>
       </c>
       <c r="G72" s="3">
-        <v>-43000</v>
+        <v>-41500</v>
       </c>
       <c r="H72" s="3">
-        <v>-42900</v>
+        <v>-41800</v>
       </c>
       <c r="I72" s="3">
-        <v>-43000</v>
+        <v>-41700</v>
       </c>
       <c r="J72" s="3">
+        <v>-41700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-44200</v>
       </c>
       <c r="Q72" s="3">
         <v>-44200</v>
       </c>
       <c r="R72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-42200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-39800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-41200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-40900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-42200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-42100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18200</v>
+        <v>17400</v>
       </c>
       <c r="E76" s="3">
-        <v>15600</v>
+        <v>17700</v>
       </c>
       <c r="F76" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="G76" s="3">
-        <v>15700</v>
+        <v>15500</v>
       </c>
       <c r="H76" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="I76" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="J76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K76" s="3">
         <v>15100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
         <v>100</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
+        <v>200</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
-        <v>0</v>
-      </c>
       <c r="Y76" s="3">
         <v>0</v>
       </c>
       <c r="Z76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-900</v>
       </c>
       <c r="M81" s="3">
         <v>-900</v>
       </c>
       <c r="N81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,46 +6490,49 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1100</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -6327,25 +6544,25 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,26 +6602,27 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -6432,14 +6653,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,52 +6840,55 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,23 +7270,26 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>-100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -7051,31 +7297,31 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
@@ -7083,8 +7329,8 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7119,14 +7368,14 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -7181,55 +7430,58 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2200</v>
+        <v>-1400</v>
       </c>
       <c r="E102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-2100</v>
       </c>
       <c r="I102" s="3">
         <v>-2100</v>
       </c>
       <c r="J102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -7238,24 +7490,27 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -1402,7 +1402,7 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1482,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1604,7 +1604,7 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
@@ -1675,7 +1675,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>200</v>
@@ -1684,7 +1684,7 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
@@ -1844,7 +1844,7 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
@@ -2084,7 +2084,7 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
@@ -2164,7 +2164,7 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
@@ -2632,7 +2632,7 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
@@ -2644,7 +2644,7 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
@@ -2804,7 +2804,7 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>1100</v>
       </c>
       <c r="E41" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
@@ -3029,10 +3029,10 @@
         <v>1100</v>
       </c>
       <c r="I41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J41" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K41" s="3">
         <v>6200</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
-        <v>1500</v>
-      </c>
       <c r="I46" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J46" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K46" s="3">
         <v>6700</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18300</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="F48" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="G48" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="H48" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="I48" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="J48" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="K48" s="3">
         <v>12700</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="E54" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="F54" s="3">
-        <v>18000</v>
+        <v>17300</v>
       </c>
       <c r="G54" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="H54" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="I54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J54" s="3">
         <v>18100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>18800</v>
       </c>
       <c r="K54" s="3">
         <v>19500</v>
@@ -4354,22 +4354,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
-      </c>
       <c r="G59" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H59" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I59" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J59" s="3">
         <v>1400</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2700</v>
-      </c>
       <c r="I60" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J60" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K60" s="3">
         <v>3400</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
-        <v>2900</v>
-      </c>
       <c r="G66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I66" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J66" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K66" s="3">
         <v>4300</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-41500</v>
+        <v>-40000</v>
       </c>
       <c r="E72" s="3">
-        <v>-41200</v>
+        <v>-39700</v>
       </c>
       <c r="F72" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="G72" s="3">
-        <v>-41500</v>
+        <v>-40000</v>
       </c>
       <c r="H72" s="3">
-        <v>-41800</v>
+        <v>-40200</v>
       </c>
       <c r="I72" s="3">
-        <v>-41700</v>
+        <v>-40100</v>
       </c>
       <c r="J72" s="3">
-        <v>-41700</v>
+        <v>-40200</v>
       </c>
       <c r="K72" s="3">
         <v>-43100</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="E76" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="F76" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="G76" s="3">
-        <v>15500</v>
+        <v>14900</v>
       </c>
       <c r="H76" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I76" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="J76" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="K76" s="3">
         <v>15100</v>
@@ -5912,7 +5912,7 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
@@ -5924,7 +5924,7 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
@@ -6514,7 +6514,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -6867,7 +6867,7 @@
         <v>-1200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K94" s="3">
         <v>-1800</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
@@ -7439,13 +7439,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E102" s="3">
         <v>2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G102" s="3">
         <v>-300</v>
@@ -7454,7 +7454,7 @@
         <v>-800</v>
       </c>
       <c r="I102" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="J102" s="3">
         <v>-2000</v>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,25 +1071,27 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1090,11 +1117,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1233,17 +1272,17 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1257,37 +1296,43 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1306,8 +1351,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1315,8 +1360,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1324,11 +1369,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>-800</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
-      </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>-300</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
-      </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1100</v>
       </c>
-      <c r="AB17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>800</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,50 +1659,50 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>500</v>
+      </c>
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1646,14 +1713,14 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1745,85 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA21" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1769,23 +1848,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1796,11 +1875,11 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA23" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA26" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA27" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,50 +2691,50 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
-      </c>
       <c r="H32" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2606,14 +2745,14 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA33" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA35" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,117 +3179,125 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
-        <v>2400</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>400</v>
       </c>
-      <c r="Y41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>600</v>
+      </c>
+      <c r="F42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>400</v>
-      </c>
-      <c r="H42" s="3">
-        <v>200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
       </c>
       <c r="K42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
@@ -3127,19 +3306,19 @@
         <v>100</v>
       </c>
       <c r="O42" s="3">
+        <v>100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q42" s="3">
         <v>300</v>
       </c>
-      <c r="P42" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>100</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3">
+        <v>100</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
@@ -3150,11 +3329,11 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3180,34 +3365,34 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,23 +3519,29 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
@@ -3358,22 +3555,22 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3400,96 +3597,108 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,59 +3777,65 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>19300</v>
       </c>
       <c r="E48" s="3">
-        <v>16800</v>
+        <v>18700</v>
       </c>
       <c r="F48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I48" s="3">
         <v>16500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>16200</v>
       </c>
-      <c r="H48" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>15200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>8700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3930,10 +4169,10 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3942,34 +4181,40 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>400</v>
       </c>
       <c r="W52" s="3">
         <v>400</v>
       </c>
       <c r="X52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
       <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19200</v>
+        <v>20800</v>
       </c>
       <c r="E54" s="3">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="F54" s="3">
-        <v>17300</v>
+        <v>19600</v>
       </c>
       <c r="G54" s="3">
-        <v>17600</v>
+        <v>20200</v>
       </c>
       <c r="H54" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="I54" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K54" s="3">
         <v>17500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
       </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,53 +4447,55 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -4268,53 +4529,59 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4327,11 +4594,11 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4348,13 +4615,19 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
@@ -4363,52 +4636,52 @@
         <v>2100</v>
       </c>
       <c r="G59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
@@ -4417,10 +4690,10 @@
         <v>600</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
@@ -4428,67 +4701,73 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>600</v>
       </c>
       <c r="W60" s="3">
         <v>600</v>
@@ -4497,10 +4776,10 @@
         <v>600</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AA60" s="3">
         <v>100</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,10 +4811,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -4541,20 +4826,20 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4588,58 +4873,64 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -4650,11 +4941,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,67 +5217,73 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F66" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="G66" s="3">
         <v>2700</v>
       </c>
       <c r="H66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2700</v>
       </c>
       <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
-      </c>
-      <c r="V66" s="3">
-        <v>600</v>
       </c>
       <c r="W66" s="3">
         <v>600</v>
@@ -4977,10 +5292,10 @@
         <v>600</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Z66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AA66" s="3">
         <v>100</v>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40000</v>
+        <v>-40900</v>
       </c>
       <c r="E72" s="3">
-        <v>-39700</v>
+        <v>-40800</v>
       </c>
       <c r="F72" s="3">
-        <v>-40500</v>
+        <v>-41000</v>
       </c>
       <c r="G72" s="3">
-        <v>-40000</v>
+        <v>-40700</v>
       </c>
       <c r="H72" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-40200</v>
       </c>
-      <c r="I72" s="3">
-        <v>-40100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-43100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-44400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-44100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-44200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-42200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-39900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-39800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-41200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-40700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-40600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-40900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-42200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-42100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16800</v>
+        <v>18300</v>
       </c>
       <c r="E76" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="F76" s="3">
-        <v>14500</v>
+        <v>17200</v>
       </c>
       <c r="G76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H76" s="3">
         <v>14900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K76" s="3">
         <v>14700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>14700</v>
       </c>
-      <c r="J76" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
       <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>0</v>
-      </c>
       <c r="AA76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA81" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,52 +6920,58 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6547,34 +6980,40 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,31 +7042,33 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6656,17 +7097,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,58 +7296,64 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>100</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,70 +7758,76 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7374,14 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1300</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1084,17 +1098,17 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1123,8 +1137,8 @@
       <c r="R12" s="3">
         <v>0</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,20 +1262,23 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1278,14 +1298,14 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1302,11 +1322,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1314,25 +1334,28 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,14 +1380,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1375,8 +1398,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,25 +1472,26 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1473,41 +1500,41 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
-        <v>100</v>
-      </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
@@ -1515,25 +1542,28 @@
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>-300</v>
       </c>
       <c r="AA17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1100</v>
       </c>
-      <c r="AD17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,16 +1571,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1559,40 +1589,40 @@
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-800</v>
       </c>
       <c r="P18" s="3">
         <v>-800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
@@ -1601,25 +1631,28 @@
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>300</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,53 +1693,53 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>500</v>
       </c>
       <c r="L20" s="3">
         <v>500</v>
       </c>
       <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1719,11 +1753,11 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,85 +1782,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-800</v>
       </c>
       <c r="P21" s="3">
         <v>-800</v>
       </c>
       <c r="Q21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1854,20 +1894,20 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>100</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1881,8 +1921,8 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-900</v>
       </c>
       <c r="P23" s="3">
         <v>-900</v>
       </c>
       <c r="Q23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-900</v>
       </c>
       <c r="P26" s="3">
         <v>-900</v>
       </c>
       <c r="Q26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>300</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-900</v>
       </c>
       <c r="P27" s="3">
         <v>-900</v>
       </c>
       <c r="Q27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,53 +2761,53 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-500</v>
       </c>
       <c r="L32" s="3">
         <v>-500</v>
       </c>
       <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2751,11 +2821,11 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-900</v>
       </c>
       <c r="P33" s="3">
         <v>-900</v>
       </c>
       <c r="Q33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-900</v>
       </c>
       <c r="P35" s="3">
         <v>-900</v>
       </c>
       <c r="Q35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,56 +3267,57 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -3238,70 +3325,73 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z41" s="3">
         <v>400</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
       <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
         <v>200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="3">
         <v>600</v>
       </c>
       <c r="F42" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G42" s="3">
         <v>200</v>
       </c>
       <c r="H42" s="3">
+        <v>200</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>200</v>
       </c>
-      <c r="M42" s="3">
-        <v>100</v>
-      </c>
       <c r="N42" s="3">
         <v>100</v>
       </c>
@@ -3312,16 +3402,16 @@
         <v>100</v>
       </c>
       <c r="Q42" s="3">
+        <v>100</v>
+      </c>
+      <c r="R42" s="3">
         <v>300</v>
       </c>
-      <c r="R42" s="3">
-        <v>100</v>
-      </c>
       <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
+      <c r="T42" s="3">
+        <v>100</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
@@ -3335,8 +3425,8 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3353,13 +3443,16 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3371,16 +3464,16 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -3389,13 +3482,13 @@
         <v>300</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3537,13 +3636,13 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3561,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3570,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3603,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
@@ -3611,67 +3710,70 @@
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
@@ -3680,25 +3782,28 @@
         <v>300</v>
       </c>
       <c r="Y46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>400</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,61 +3888,64 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>18700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>17200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8700</v>
       </c>
       <c r="P48" s="3">
         <v>8700</v>
       </c>
       <c r="Q48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4175,7 +4295,7 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -4187,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>300</v>
-      </c>
-      <c r="W52" s="3">
-        <v>400</v>
       </c>
       <c r="X52" s="3">
         <v>400</v>
@@ -4199,11 +4319,11 @@
         <v>400</v>
       </c>
       <c r="Z52" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA52" s="3">
         <v>500</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
@@ -4211,10 +4331,13 @@
         <v>0</v>
       </c>
       <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E54" s="3">
         <v>20800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>800</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>900</v>
       </c>
       <c r="Z54" s="3">
         <v>900</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,56 +4579,57 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -4535,22 +4666,25 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -4559,13 +4693,13 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4574,17 +4708,17 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4600,8 +4734,8 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,58 +4770,58 @@
         <v>1900</v>
       </c>
       <c r="F59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2400</v>
       </c>
       <c r="J59" s="3">
         <v>2400</v>
       </c>
       <c r="K59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
-        <v>800</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>800</v>
       </c>
       <c r="T59" s="3">
+        <v>800</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
@@ -4696,7 +4833,7 @@
         <v>600</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
@@ -4707,70 +4844,73 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2700</v>
       </c>
       <c r="J60" s="3">
         <v>2700</v>
       </c>
       <c r="K60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
       <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>500</v>
       </c>
       <c r="V60" s="3">
         <v>500</v>
       </c>
       <c r="W60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X60" s="3">
         <v>600</v>
@@ -4782,7 +4922,7 @@
         <v>600</v>
       </c>
       <c r="AA60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AB60" s="3">
         <v>100</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4817,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -4832,17 +4975,17 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4891,35 +5037,35 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4929,11 +5075,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,70 +5378,73 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
       <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>500</v>
       </c>
       <c r="V66" s="3">
         <v>500</v>
       </c>
       <c r="W66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X66" s="3">
         <v>600</v>
@@ -5298,7 +5456,7 @@
         <v>600</v>
       </c>
       <c r="AA66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AB66" s="3">
         <v>100</v>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40900</v>
+        <v>-39800</v>
       </c>
       <c r="E72" s="3">
         <v>-40800</v>
       </c>
       <c r="F72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-41000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-44200</v>
       </c>
       <c r="T72" s="3">
         <v>-44200</v>
       </c>
       <c r="U72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-42200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-39900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-41200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-40700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-40600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-40900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-42200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-42100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14900</v>
       </c>
-      <c r="I76" s="3">
-        <v>15300</v>
-      </c>
       <c r="J76" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K76" s="3">
         <v>15000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>14700</v>
       </c>
       <c r="L76" s="3">
         <v>14700</v>
       </c>
       <c r="M76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="N76" s="3">
         <v>15100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
       <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
       <c r="W76" s="3">
         <v>100</v>
       </c>
       <c r="X76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>200</v>
       </c>
       <c r="Z76" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="AA76" s="3">
-        <v>0</v>
-      </c>
       <c r="AB76" s="3">
         <v>0</v>
       </c>
       <c r="AC76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-900</v>
       </c>
       <c r="P81" s="3">
         <v>-900</v>
       </c>
       <c r="Q81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,55 +7140,58 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
@@ -6986,25 +7203,25 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,35 +7264,36 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -7103,14 +7324,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,61 +7529,64 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,32 +8007,35 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7797,31 +8043,31 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
@@ -7829,8 +8075,8 @@
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="X100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7874,14 +8123,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -7936,64 +8185,67 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-2000</v>
       </c>
       <c r="L102" s="3">
         <v>-2000</v>
       </c>
       <c r="M102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N102" s="3">
         <v>3500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
@@ -8002,24 +8254,27 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="3">
         <v>-100</v>
       </c>
       <c r="AD102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PNCKF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>PNCKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,17 +1115,17 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1140,8 +1154,8 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,23 +1282,26 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1301,14 +1321,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1325,11 +1345,11 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1337,25 +1357,28 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-800</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>1000</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1383,14 +1406,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1401,8 +1424,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,28 +1499,29 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>-500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
-        <v>900</v>
-      </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1503,41 +1530,41 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>800</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
@@ -1545,25 +1572,28 @@
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>-300</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>-300</v>
       </c>
       <c r="AB17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1100</v>
       </c>
-      <c r="AE17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,19 +1601,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-900</v>
-      </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1592,40 +1622,40 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-800</v>
       </c>
       <c r="Q18" s="3">
         <v>-800</v>
       </c>
       <c r="R18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
@@ -1634,25 +1664,28 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>300</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,56 +1727,56 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>500</v>
       </c>
       <c r="M20" s="3">
         <v>500</v>
       </c>
       <c r="N20" s="3">
+        <v>500</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1756,11 +1790,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-800</v>
       </c>
       <c r="Q21" s="3">
         <v>-800</v>
       </c>
       <c r="R21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1897,20 +1937,20 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>100</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1924,8 +1964,8 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-900</v>
       </c>
       <c r="Q23" s="3">
         <v>-900</v>
       </c>
       <c r="R23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>300</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-900</v>
       </c>
       <c r="Q26" s="3">
         <v>-900</v>
       </c>
       <c r="R26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>300</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-900</v>
       </c>
       <c r="Q27" s="3">
         <v>-900</v>
       </c>
       <c r="R27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,56 +2831,56 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-500</v>
       </c>
       <c r="M32" s="3">
         <v>-500</v>
       </c>
       <c r="N32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2824,11 +2894,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-900</v>
       </c>
       <c r="Q33" s="3">
         <v>-900</v>
       </c>
       <c r="R33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-900</v>
       </c>
       <c r="Q35" s="3">
         <v>-900</v>
       </c>
       <c r="R35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,59 +3354,60 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
-        <v>2500</v>
-      </c>
       <c r="I41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
@@ -3328,73 +3415,76 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
       </c>
       <c r="Z41" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA41" s="3">
         <v>400</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
-        <v>600</v>
-      </c>
       <c r="F42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H42" s="3">
         <v>200</v>
       </c>
       <c r="I42" s="3">
+        <v>200</v>
+      </c>
+      <c r="J42" s="3">
         <v>300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>200</v>
       </c>
-      <c r="N42" s="3">
-        <v>100</v>
-      </c>
       <c r="O42" s="3">
         <v>100</v>
       </c>
@@ -3405,16 +3495,16 @@
         <v>100</v>
       </c>
       <c r="R42" s="3">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3">
         <v>300</v>
       </c>
-      <c r="S42" s="3">
-        <v>100</v>
-      </c>
       <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
+      <c r="U42" s="3">
+        <v>100</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
@@ -3428,8 +3518,8 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,17 +3536,20 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -3467,16 +3560,16 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -3485,13 +3578,13 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3535,31 +3628,34 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3639,13 +3738,13 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -3663,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3672,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3705,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>100</v>
@@ -3713,70 +3812,73 @@
       <c r="AE45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
-        <v>1200</v>
-      </c>
       <c r="G46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
@@ -3785,25 +3887,28 @@
         <v>300</v>
       </c>
       <c r="Z46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA46" s="3">
         <v>400</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,64 +3996,67 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19700</v>
+        <v>20600</v>
       </c>
       <c r="E48" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="F48" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="G48" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="H48" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="I48" s="3">
         <v>16900</v>
       </c>
       <c r="J48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K48" s="3">
         <v>16500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>8700</v>
       </c>
       <c r="Q48" s="3">
         <v>8700</v>
       </c>
       <c r="R48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4418,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -4310,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>300</v>
-      </c>
-      <c r="X52" s="3">
-        <v>400</v>
       </c>
       <c r="Y52" s="3">
         <v>400</v>
@@ -4322,11 +4442,11 @@
         <v>400</v>
       </c>
       <c r="AA52" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB52" s="3">
         <v>500</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
       <c r="AC52" s="3">
         <v>0</v>
       </c>
@@ -4334,10 +4454,13 @@
         <v>0</v>
       </c>
       <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="E54" s="3">
-        <v>20800</v>
+        <v>21200</v>
       </c>
       <c r="F54" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="G54" s="3">
         <v>19600</v>
       </c>
       <c r="H54" s="3">
-        <v>20200</v>
+        <v>19300</v>
       </c>
       <c r="I54" s="3">
-        <v>17700</v>
+        <v>19800</v>
       </c>
       <c r="J54" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K54" s="3">
         <v>18000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>900</v>
       </c>
       <c r="AA54" s="3">
         <v>900</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD54" s="3">
         <v>200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,59 +4710,60 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4680,14 +4814,14 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4696,13 +4830,13 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4711,17 +4845,17 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4737,8 +4871,8 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4758,13 +4892,16 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
@@ -4773,58 +4910,58 @@
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="H59" s="3">
         <v>2000</v>
       </c>
       <c r="I59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J59" s="3">
         <v>2200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2400</v>
       </c>
       <c r="K59" s="3">
         <v>2400</v>
       </c>
       <c r="L59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>500</v>
       </c>
       <c r="X59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y59" s="3">
         <v>600</v>
@@ -4836,7 +4973,7 @@
         <v>600</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AC59" s="3">
         <v>100</v>
@@ -4847,73 +4984,76 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2700</v>
       </c>
       <c r="K60" s="3">
         <v>2700</v>
       </c>
       <c r="L60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>800</v>
       </c>
       <c r="U60" s="3">
+        <v>800</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
-      </c>
-      <c r="V60" s="3">
-        <v>500</v>
       </c>
       <c r="W60" s="3">
         <v>500</v>
       </c>
       <c r="X60" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y60" s="3">
         <v>600</v>
@@ -4925,7 +5065,7 @@
         <v>600</v>
       </c>
       <c r="AB60" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AC60" s="3">
         <v>100</v>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4978,17 +5121,17 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -5025,13 +5168,16 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -5040,35 +5186,35 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5078,11 +5224,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,73 +5536,76 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="E66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="Q66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S66" s="3">
         <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
       </c>
       <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>500</v>
       </c>
       <c r="W66" s="3">
         <v>500</v>
       </c>
       <c r="X66" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y66" s="3">
         <v>600</v>
@@ -5459,7 +5617,7 @@
         <v>600</v>
       </c>
       <c r="AB66" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AC66" s="3">
         <v>100</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-39800</v>
+        <v>-39900</v>
       </c>
       <c r="E72" s="3">
-        <v>-40800</v>
+        <v>-39100</v>
       </c>
       <c r="F72" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-40700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-41000</v>
       </c>
-      <c r="H72" s="3">
-        <v>-40700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-41200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-40200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-44200</v>
       </c>
       <c r="U72" s="3">
         <v>-44200</v>
       </c>
       <c r="V72" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="W72" s="3">
         <v>-42200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-41200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-40700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-40600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-40900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-42200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-42100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-41000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19400</v>
+        <v>18600</v>
       </c>
       <c r="E76" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="F76" s="3">
-        <v>17400</v>
+        <v>18000</v>
       </c>
       <c r="G76" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="H76" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="I76" s="3">
-        <v>14900</v>
+        <v>17100</v>
       </c>
       <c r="J76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>14700</v>
       </c>
       <c r="M76" s="3">
         <v>14700</v>
       </c>
       <c r="N76" s="3">
+        <v>14700</v>
+      </c>
+      <c r="O76" s="3">
         <v>15100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-400</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
       </c>
       <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
       <c r="X76" s="3">
         <v>100</v>
       </c>
       <c r="Y76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z76" s="3">
         <v>200</v>
       </c>
       <c r="AA76" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
-        <v>0</v>
-      </c>
       <c r="AC76" s="3">
         <v>0</v>
       </c>
       <c r="AD76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF76" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-900</v>
       </c>
       <c r="Q81" s="3">
         <v>-900</v>
       </c>
       <c r="R81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,58 +7357,61 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
@@ -7206,25 +7423,25 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="3">
         <v>-100</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,38 +7485,39 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7327,14 +7548,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,64 +7759,67 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,26 +8265,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -8046,31 +8292,31 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
@@ -8078,8 +8324,8 @@
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8126,14 +8375,14 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -8188,67 +8437,70 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-500</v>
-      </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-2000</v>
       </c>
       <c r="M102" s="3">
         <v>-2000</v>
       </c>
       <c r="N102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O102" s="3">
         <v>3500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -8257,24 +8509,27 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="3">
         <v>-100</v>
       </c>
       <c r="AE102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
